--- a/Code/Results/Cases/Case_3_226/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_226/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.58000860909852</v>
+        <v>12.87980402204886</v>
       </c>
       <c r="C2">
-        <v>7.675472073088906</v>
+        <v>10.77420178013385</v>
       </c>
       <c r="D2">
-        <v>5.154951328207169</v>
+        <v>5.87748155105499</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.23600210935347</v>
+        <v>28.54488774583529</v>
       </c>
       <c r="G2">
-        <v>2.10468613932976</v>
+        <v>3.661674947055762</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.40162308571146</v>
+        <v>8.830765766264237</v>
       </c>
       <c r="L2">
-        <v>8.089613365272411</v>
+        <v>10.77683158768227</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.48548864622209</v>
+        <v>25.58691595381615</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.58909818009811</v>
+        <v>12.62173965962794</v>
       </c>
       <c r="C3">
-        <v>7.778127783005817</v>
+        <v>10.80531747781169</v>
       </c>
       <c r="D3">
-        <v>5.052979033934916</v>
+        <v>5.840504097921566</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.92305278072495</v>
+        <v>28.57749054321913</v>
       </c>
       <c r="G3">
-        <v>2.1099059793093</v>
+        <v>3.663616051678476</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.78381568914677</v>
+        <v>8.648728662671546</v>
       </c>
       <c r="L3">
-        <v>7.808949805471845</v>
+        <v>10.75171704551102</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.45899363899786</v>
+        <v>25.65714963746957</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.94512391587892</v>
+        <v>12.4631488333777</v>
       </c>
       <c r="C4">
-        <v>7.842839349979417</v>
+        <v>10.82537905994657</v>
       </c>
       <c r="D4">
-        <v>4.988879001784338</v>
+        <v>5.817303545317124</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.74762183666115</v>
+        <v>28.60461493480994</v>
       </c>
       <c r="G4">
-        <v>2.113209492294941</v>
+        <v>3.664871243099651</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.38579102186356</v>
+        <v>8.536390530160377</v>
       </c>
       <c r="L4">
-        <v>7.636465035660593</v>
+        <v>10.73846106199048</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.45717109388351</v>
+        <v>25.7055642473884</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.67369992408297</v>
+        <v>12.39857926064791</v>
       </c>
       <c r="C5">
-        <v>7.869642815715112</v>
+        <v>10.83379558238694</v>
       </c>
       <c r="D5">
-        <v>4.962401459998704</v>
+        <v>5.807727252075199</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.68029559291541</v>
+        <v>28.61745223636242</v>
       </c>
       <c r="G5">
-        <v>2.114581073994314</v>
+        <v>3.665398722756004</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.21895619582231</v>
+        <v>8.490532709160039</v>
       </c>
       <c r="L5">
-        <v>7.566235726094305</v>
+        <v>10.73360733530506</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.45992672474883</v>
+        <v>25.72662126158459</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.62808491707448</v>
+        <v>12.38786373680971</v>
       </c>
       <c r="C6">
-        <v>7.87411995823934</v>
+        <v>10.83520773388333</v>
       </c>
       <c r="D6">
-        <v>4.957983915421893</v>
+        <v>5.80612983990519</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.66936609809103</v>
+        <v>28.61969150031894</v>
       </c>
       <c r="G6">
-        <v>2.114810373691452</v>
+        <v>3.665487276920488</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.19097555569383</v>
+        <v>8.482915159887824</v>
       </c>
       <c r="L6">
-        <v>7.554580833348566</v>
+        <v>10.7328345922585</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.46059163641679</v>
+        <v>25.73019786700342</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.94149991315071</v>
+        <v>12.46227766952088</v>
       </c>
       <c r="C7">
-        <v>7.843199064303236</v>
+        <v>10.82549159022508</v>
       </c>
       <c r="D7">
-        <v>4.988523334250893</v>
+        <v>5.817174885722271</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.74669705898528</v>
+        <v>28.60478084480571</v>
       </c>
       <c r="G7">
-        <v>2.113227886411663</v>
+        <v>3.664878292110081</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.38355970615366</v>
+        <v>8.535772310901796</v>
       </c>
       <c r="L7">
-        <v>7.635517521203535</v>
+        <v>10.73839337849705</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.45719427092198</v>
+        <v>25.70584285775335</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.2456851477921</v>
+        <v>12.79090681948312</v>
       </c>
       <c r="C8">
-        <v>7.710525351087025</v>
+        <v>10.78473242990555</v>
       </c>
       <c r="D8">
-        <v>5.120110755949051</v>
+        <v>5.864836454092131</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.12460582542903</v>
+        <v>28.55465272697023</v>
       </c>
       <c r="G8">
-        <v>2.106465865761081</v>
+        <v>3.662331122910706</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.19251416107472</v>
+        <v>8.768154412798285</v>
       </c>
       <c r="L8">
-        <v>7.992929994526335</v>
+        <v>10.76772536437605</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.47327485320938</v>
+        <v>25.61003279919669</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.5238455021233</v>
+        <v>13.43031670122487</v>
       </c>
       <c r="C9">
-        <v>7.463193892305315</v>
+        <v>10.71235749806065</v>
       </c>
       <c r="D9">
-        <v>5.365605647525168</v>
+        <v>5.954238347038837</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.99959661089738</v>
+        <v>28.51283881538927</v>
       </c>
       <c r="G9">
-        <v>2.093958433142255</v>
+        <v>3.657836454202055</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.62868283899295</v>
+        <v>9.216677331410867</v>
       </c>
       <c r="L9">
-        <v>8.688649047142409</v>
+        <v>10.842225541638</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.62532355441434</v>
+        <v>25.46424808165922</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.03120036476887</v>
+        <v>13.89197197271814</v>
       </c>
       <c r="C10">
-        <v>7.288585561788157</v>
+        <v>10.66373921947658</v>
       </c>
       <c r="D10">
-        <v>5.537421438746143</v>
+        <v>6.017282477346654</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.72508095572928</v>
+        <v>28.51664873238188</v>
       </c>
       <c r="G10">
-        <v>2.08518570333548</v>
+        <v>3.654836017808041</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.59074699018528</v>
+        <v>9.538412214660342</v>
       </c>
       <c r="L10">
-        <v>9.192056515250131</v>
+        <v>10.90702274087913</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.81838907882618</v>
+        <v>25.38295780830567</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.6816703357642</v>
+        <v>14.09923321694249</v>
       </c>
       <c r="C11">
-        <v>7.210526916538224</v>
+        <v>10.64260022969361</v>
       </c>
       <c r="D11">
-        <v>5.613562274734366</v>
+        <v>6.045355836538032</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>23.07311339029308</v>
+        <v>28.52588270614577</v>
       </c>
       <c r="G11">
-        <v>2.081275167125847</v>
+        <v>3.653535890407939</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.00811663733357</v>
+        <v>9.682418193921171</v>
       </c>
       <c r="L11">
-        <v>9.418619958478597</v>
+        <v>10.93861397500853</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.925512580341</v>
+        <v>25.35161218369758</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.9229927375794</v>
+        <v>14.17724546116809</v>
       </c>
       <c r="C12">
-        <v>7.181150883746012</v>
+        <v>10.63473525313751</v>
       </c>
       <c r="D12">
-        <v>5.642092138122872</v>
+        <v>6.055896514054294</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23.20748907268348</v>
+        <v>28.53045661970259</v>
       </c>
       <c r="G12">
-        <v>2.079805002310529</v>
+        <v>3.65305283039787</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.16325199697826</v>
+        <v>9.736559862421013</v>
       </c>
       <c r="L12">
-        <v>9.504012210005214</v>
+        <v>10.95087405853357</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.96898093933412</v>
+        <v>25.34055462194769</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.87124071619888</v>
+        <v>14.16046635986646</v>
       </c>
       <c r="C13">
-        <v>7.187469629207015</v>
+        <v>10.63642290542861</v>
       </c>
       <c r="D13">
-        <v>5.635961387163029</v>
+        <v>6.053630444664875</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>23.17843407571842</v>
+        <v>28.52942366857564</v>
       </c>
       <c r="G13">
-        <v>2.080121168457456</v>
+        <v>3.653156454458791</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.12997027292601</v>
+        <v>9.724917633908772</v>
       </c>
       <c r="L13">
-        <v>9.485640071445582</v>
+        <v>10.9482205282022</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.95948813383629</v>
+        <v>25.34289990328695</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.70162380107938</v>
+        <v>14.10566124222259</v>
       </c>
       <c r="C14">
-        <v>7.208106547275399</v>
+        <v>10.64195037347762</v>
       </c>
       <c r="D14">
-        <v>5.615915584950812</v>
+        <v>6.046224847018192</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>23.08411682248538</v>
+        <v>28.5262374272147</v>
       </c>
       <c r="G14">
-        <v>2.081154007100235</v>
+        <v>3.653495963248314</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.02093806380691</v>
+        <v>9.686880568693081</v>
       </c>
       <c r="L14">
-        <v>9.425653554702853</v>
+        <v>10.93961670489286</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.92902984576763</v>
+        <v>25.35068617884212</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.59707997915071</v>
+        <v>14.07202768263148</v>
       </c>
       <c r="C15">
-        <v>7.220770664763404</v>
+        <v>10.64535430593128</v>
       </c>
       <c r="D15">
-        <v>5.603597135059121</v>
+        <v>6.041676883682077</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>23.02668101223026</v>
+        <v>28.52442598936014</v>
       </c>
       <c r="G15">
-        <v>2.081788013496334</v>
+        <v>3.653705128051722</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.95377348121482</v>
+        <v>9.663529459233096</v>
       </c>
       <c r="L15">
-        <v>9.388856317577789</v>
+        <v>10.93438510222898</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.91075506800954</v>
+        <v>25.35556135119966</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.98798756845269</v>
+        <v>13.87836489681737</v>
       </c>
       <c r="C16">
-        <v>7.293713285733943</v>
+        <v>10.66514031674842</v>
       </c>
       <c r="D16">
-        <v>5.532403715326241</v>
+        <v>6.015435371759498</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.70269808097843</v>
+        <v>28.51619610746087</v>
       </c>
       <c r="G16">
-        <v>2.085442807693616</v>
+        <v>3.654922283900399</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.56306287972764</v>
+        <v>9.528949224043044</v>
       </c>
       <c r="L16">
-        <v>9.177196329286948</v>
+        <v>10.90500015042794</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.81178764146425</v>
+        <v>25.38511987845148</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.60535406050526</v>
+        <v>13.75879828222264</v>
       </c>
       <c r="C17">
-        <v>7.338802690650066</v>
+        <v>10.67752831267262</v>
       </c>
       <c r="D17">
-        <v>5.488202317195197</v>
+        <v>5.999179769960405</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.50855328139062</v>
+        <v>28.5130677772765</v>
       </c>
       <c r="G17">
-        <v>2.087704854795537</v>
+        <v>3.655685529926691</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.31817999214372</v>
+        <v>9.445747977990596</v>
       </c>
       <c r="L17">
-        <v>9.046685047081755</v>
+        <v>10.88751026677025</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.7561090022882</v>
+        <v>25.40469765898665</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.38195272568198</v>
+        <v>13.68977243708521</v>
       </c>
       <c r="C18">
-        <v>7.364866913772376</v>
+        <v>10.68474562784416</v>
       </c>
       <c r="D18">
-        <v>5.462589481271436</v>
+        <v>5.989773139613654</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.39858170954773</v>
+        <v>28.51197459941045</v>
       </c>
       <c r="G18">
-        <v>2.089013530545261</v>
+        <v>3.656130629569765</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.17542044566541</v>
+        <v>9.397674258026782</v>
       </c>
       <c r="L18">
-        <v>8.971391264055837</v>
+        <v>10.8776500325597</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.72589300548251</v>
+        <v>25.41648843386942</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.3057404521219</v>
+        <v>13.66636024829817</v>
       </c>
       <c r="C19">
-        <v>7.373714556089272</v>
+        <v>10.68720512069315</v>
       </c>
       <c r="D19">
-        <v>5.453885299069097</v>
+        <v>5.986578546054065</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.36163855573368</v>
+        <v>28.51172577861891</v>
       </c>
       <c r="G19">
-        <v>2.089457957451058</v>
+        <v>3.656282381877</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.12675663666685</v>
+        <v>9.381361421272585</v>
       </c>
       <c r="L19">
-        <v>8.945860812546856</v>
+        <v>10.87434599195319</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.71596910593463</v>
+        <v>25.42057157084643</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.64642922700936</v>
+        <v>13.77155324998726</v>
       </c>
       <c r="C20">
-        <v>7.333989493030817</v>
+        <v>10.67620006575076</v>
       </c>
       <c r="D20">
-        <v>5.492927325434373</v>
+        <v>6.000916110852521</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.52904489858567</v>
+        <v>28.51332771618344</v>
       </c>
       <c r="G20">
-        <v>2.08746327490367</v>
+        <v>3.655603650018509</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.34444581563022</v>
+        <v>9.454627900065397</v>
       </c>
       <c r="L20">
-        <v>9.060602111373418</v>
+        <v>10.88935149760982</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.76184793701445</v>
+        <v>25.40255868514686</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.75157943199877</v>
+        <v>14.12177227091859</v>
       </c>
       <c r="C21">
-        <v>7.202040132104565</v>
+        <v>10.64032303076421</v>
       </c>
       <c r="D21">
-        <v>5.621811841745676</v>
+        <v>6.048402519308291</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>23.11175002772636</v>
+        <v>28.52714408415459</v>
       </c>
       <c r="G21">
-        <v>2.080850354955359</v>
+        <v>3.653395990066913</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.05304247710631</v>
+        <v>9.698063965821595</v>
       </c>
       <c r="L21">
-        <v>9.443284330857594</v>
+        <v>10.94213584852801</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.93789639195899</v>
+        <v>25.3483770974759</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.44477020293312</v>
+        <v>14.34787032582557</v>
       </c>
       <c r="C22">
-        <v>7.116863590550106</v>
+        <v>10.61769044268825</v>
       </c>
       <c r="D22">
-        <v>5.70427409235691</v>
+        <v>6.07891113869288</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.5076362780479</v>
+        <v>28.54245137047489</v>
       </c>
       <c r="G22">
-        <v>2.07659017942649</v>
+        <v>3.652007168284715</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.49917615853915</v>
+        <v>9.854867006659086</v>
       </c>
       <c r="L22">
-        <v>9.69102701554147</v>
+        <v>10.97836209545891</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.06993232147834</v>
+        <v>25.31770215072643</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.07743903709262</v>
+        <v>14.22747737060235</v>
       </c>
       <c r="C23">
-        <v>7.162231809432479</v>
+        <v>10.62969552378421</v>
       </c>
       <c r="D23">
-        <v>5.660428374370473</v>
+        <v>6.062677264867325</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>23.2949689545988</v>
+        <v>28.53370789420734</v>
       </c>
       <c r="G23">
-        <v>2.078858566836929</v>
+        <v>3.652743481694585</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.26261656051218</v>
+        <v>9.77140468870847</v>
       </c>
       <c r="L23">
-        <v>9.559032648166639</v>
+        <v>10.95887169101363</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.99786729616293</v>
+        <v>25.33363993749774</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.62786980276791</v>
+        <v>13.7657876120564</v>
       </c>
       <c r="C24">
-        <v>7.336165097176414</v>
+        <v>10.67680026929711</v>
       </c>
       <c r="D24">
-        <v>5.490791773877784</v>
+        <v>6.000131301114235</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.51977551462283</v>
+        <v>28.51320800059283</v>
       </c>
       <c r="G24">
-        <v>2.08757246758305</v>
+        <v>3.655640648299462</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.33257718273406</v>
+        <v>9.450614031527408</v>
       </c>
       <c r="L24">
-        <v>9.054311015860819</v>
+        <v>10.8885184694382</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.75924778523055</v>
+        <v>25.40352404809334</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.93705296548438</v>
+        <v>13.25841356802987</v>
       </c>
       <c r="C25">
-        <v>7.528801352478492</v>
+        <v>10.73113328978827</v>
       </c>
       <c r="D25">
-        <v>5.300633547768511</v>
+        <v>5.930504593633605</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.74841285270128</v>
+        <v>28.51809011513916</v>
       </c>
       <c r="G25">
-        <v>2.097265663147505</v>
+        <v>3.658999151740743</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.25644522575828</v>
+        <v>9.096472149713309</v>
       </c>
       <c r="L25">
-        <v>8.501502153917324</v>
+        <v>10.82028140263798</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.57046343214553</v>
+        <v>25.49916322995003</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_226/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_226/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.87980402204886</v>
+        <v>14.58000860909856</v>
       </c>
       <c r="C2">
-        <v>10.77420178013385</v>
+        <v>7.675472073088907</v>
       </c>
       <c r="D2">
-        <v>5.87748155105499</v>
+        <v>5.154951328207338</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.54488774583529</v>
+        <v>21.2360021093533</v>
       </c>
       <c r="G2">
-        <v>3.661674947055762</v>
+        <v>2.104686139329629</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.830765766264237</v>
+        <v>11.40162308571152</v>
       </c>
       <c r="L2">
-        <v>10.77683158768227</v>
+        <v>8.089613365272353</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.58691595381615</v>
+        <v>17.48548864622201</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.62173965962794</v>
+        <v>13.58909818009815</v>
       </c>
       <c r="C3">
-        <v>10.80531747781169</v>
+        <v>7.778127783005679</v>
       </c>
       <c r="D3">
-        <v>5.840504097921566</v>
+        <v>5.052979033934991</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.57749054321913</v>
+        <v>20.92305278072492</v>
       </c>
       <c r="G3">
-        <v>3.663616051678476</v>
+        <v>2.109905979309433</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.648728662671546</v>
+        <v>10.78381568914681</v>
       </c>
       <c r="L3">
-        <v>10.75171704551102</v>
+        <v>7.808949805471786</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.65714963746957</v>
+        <v>17.45899363899781</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.4631488333777</v>
+        <v>12.94512391587889</v>
       </c>
       <c r="C4">
-        <v>10.82537905994657</v>
+        <v>7.842839349979684</v>
       </c>
       <c r="D4">
-        <v>5.817303545317124</v>
+        <v>4.988879001784268</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.60461493480994</v>
+        <v>20.74762183666111</v>
       </c>
       <c r="G4">
-        <v>3.664871243099651</v>
+        <v>2.113209492295207</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.536390530160377</v>
+        <v>10.38579102186356</v>
       </c>
       <c r="L4">
-        <v>10.73846106199048</v>
+        <v>7.636465035660596</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.7055642473884</v>
+        <v>17.4571710938835</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.39857926064791</v>
+        <v>12.67369992408294</v>
       </c>
       <c r="C5">
-        <v>10.83379558238694</v>
+        <v>7.869642815715383</v>
       </c>
       <c r="D5">
-        <v>5.807727252075199</v>
+        <v>4.962401459998587</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>28.61745223636242</v>
+        <v>20.68029559291548</v>
       </c>
       <c r="G5">
-        <v>3.665398722756004</v>
+        <v>2.114581073994314</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.490532709160039</v>
+        <v>10.2189561958223</v>
       </c>
       <c r="L5">
-        <v>10.73360733530506</v>
+        <v>7.566235726094275</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.72662126158459</v>
+        <v>17.45992672474884</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.38786373680971</v>
+        <v>12.6280849170745</v>
       </c>
       <c r="C6">
-        <v>10.83520773388333</v>
+        <v>7.874119958239067</v>
       </c>
       <c r="D6">
-        <v>5.80612983990519</v>
+        <v>4.957983915422067</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>28.61969150031894</v>
+        <v>20.669366098091</v>
       </c>
       <c r="G6">
-        <v>3.665487276920488</v>
+        <v>2.114810373691452</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.482915159887824</v>
+        <v>10.19097555569384</v>
       </c>
       <c r="L6">
-        <v>10.7328345922585</v>
+        <v>7.554580833348597</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.73019786700342</v>
+        <v>17.4605916364168</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.46227766952088</v>
+        <v>12.9414999131507</v>
       </c>
       <c r="C7">
-        <v>10.82549159022508</v>
+        <v>7.843199064303101</v>
       </c>
       <c r="D7">
-        <v>5.817174885722271</v>
+        <v>4.988523334250955</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.60478084480571</v>
+        <v>20.74669705898516</v>
       </c>
       <c r="G7">
-        <v>3.664878292110081</v>
+        <v>2.113227886411663</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.535772310901796</v>
+        <v>10.38355970615365</v>
       </c>
       <c r="L7">
-        <v>10.73839337849705</v>
+        <v>7.635517521203574</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.70584285775335</v>
+        <v>17.45719427092192</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.79090681948312</v>
+        <v>14.24568514779215</v>
       </c>
       <c r="C8">
-        <v>10.78473242990555</v>
+        <v>7.710525351086754</v>
       </c>
       <c r="D8">
-        <v>5.864836454092131</v>
+        <v>5.120110755948923</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.55465272697023</v>
+        <v>21.1246058254292</v>
       </c>
       <c r="G8">
-        <v>3.662331122910706</v>
+        <v>2.10646586576108</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.768154412798285</v>
+        <v>11.19251416107475</v>
       </c>
       <c r="L8">
-        <v>10.76772536437605</v>
+        <v>7.992929994526422</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.61003279919669</v>
+        <v>17.47327485320943</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.43031670122487</v>
+        <v>16.52384550212335</v>
       </c>
       <c r="C9">
-        <v>10.71235749806065</v>
+        <v>7.463193892305586</v>
       </c>
       <c r="D9">
-        <v>5.954238347038837</v>
+        <v>5.365605647525164</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.51283881538927</v>
+        <v>21.99959661089722</v>
       </c>
       <c r="G9">
-        <v>3.657836454202055</v>
+        <v>2.093958433142121</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.216677331410867</v>
+        <v>12.62868283899307</v>
       </c>
       <c r="L9">
-        <v>10.842225541638</v>
+        <v>8.688649047142412</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.46424808165922</v>
+        <v>17.62532355441421</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.89197197271814</v>
+        <v>18.03120036476889</v>
       </c>
       <c r="C10">
-        <v>10.66373921947658</v>
+        <v>7.288585561788421</v>
       </c>
       <c r="D10">
-        <v>6.017282477346654</v>
+        <v>5.537421438746143</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>28.51664873238188</v>
+        <v>22.72508095572924</v>
       </c>
       <c r="G10">
-        <v>3.654836017808041</v>
+        <v>2.085185703335481</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.538412214660342</v>
+        <v>13.59074699018535</v>
       </c>
       <c r="L10">
-        <v>10.90702274087913</v>
+        <v>9.192056515250135</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.38295780830567</v>
+        <v>17.81838907882612</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.09923321694249</v>
+        <v>18.68167033576417</v>
       </c>
       <c r="C11">
-        <v>10.64260022969361</v>
+        <v>7.210526916538224</v>
       </c>
       <c r="D11">
-        <v>6.045355836538032</v>
+        <v>5.613562274734585</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>28.52588270614577</v>
+        <v>23.07311339029305</v>
       </c>
       <c r="G11">
-        <v>3.653535890407939</v>
+        <v>2.081275167125714</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.682418193921171</v>
+        <v>14.00811663733358</v>
       </c>
       <c r="L11">
-        <v>10.93861397500853</v>
+        <v>9.418619958478589</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.35161218369758</v>
+        <v>17.92551258034104</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.17724546116809</v>
+        <v>18.92299273757938</v>
       </c>
       <c r="C12">
-        <v>10.63473525313751</v>
+        <v>7.181150883746145</v>
       </c>
       <c r="D12">
-        <v>6.055896514054294</v>
+        <v>5.642092138122861</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>28.53045661970259</v>
+        <v>23.20748907268347</v>
       </c>
       <c r="G12">
-        <v>3.65305283039787</v>
+        <v>2.07980500231053</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.736559862421013</v>
+        <v>14.16325199697827</v>
       </c>
       <c r="L12">
-        <v>10.95087405853357</v>
+        <v>9.50401221000519</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.34055462194769</v>
+        <v>17.96898093933409</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.16046635986646</v>
+        <v>18.87124071619886</v>
       </c>
       <c r="C13">
-        <v>10.63642290542861</v>
+        <v>7.187469629207148</v>
       </c>
       <c r="D13">
-        <v>6.053630444664875</v>
+        <v>5.635961387163077</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>28.52942366857564</v>
+        <v>23.17843407571836</v>
       </c>
       <c r="G13">
-        <v>3.653156454458791</v>
+        <v>2.080121168457454</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.724917633908772</v>
+        <v>14.12997027292603</v>
       </c>
       <c r="L13">
-        <v>10.9482205282022</v>
+        <v>9.485640071445621</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.34289990328695</v>
+        <v>17.95948813383626</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.10566124222259</v>
+        <v>18.70162380107933</v>
       </c>
       <c r="C14">
-        <v>10.64195037347762</v>
+        <v>7.208106547275532</v>
       </c>
       <c r="D14">
-        <v>6.046224847018192</v>
+        <v>5.61591558495108</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>28.5262374272147</v>
+        <v>23.0841168224854</v>
       </c>
       <c r="G14">
-        <v>3.653495963248314</v>
+        <v>2.081154007100104</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.686880568693081</v>
+        <v>14.02093806380686</v>
       </c>
       <c r="L14">
-        <v>10.93961670489286</v>
+        <v>9.425653554702853</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.35068617884212</v>
+        <v>17.9290298457677</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.07202768263148</v>
+        <v>18.59707997915077</v>
       </c>
       <c r="C15">
-        <v>10.64535430593128</v>
+        <v>7.220770664763538</v>
       </c>
       <c r="D15">
-        <v>6.041676883682077</v>
+        <v>5.603597135059238</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>28.52442598936014</v>
+        <v>23.02668101223008</v>
       </c>
       <c r="G15">
-        <v>3.653705128051722</v>
+        <v>2.081788013496468</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.663529459233096</v>
+        <v>13.95377348121487</v>
       </c>
       <c r="L15">
-        <v>10.93438510222898</v>
+        <v>9.388856317577757</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.35556135119966</v>
+        <v>17.9107550680094</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.87836489681737</v>
+        <v>17.98798756845276</v>
       </c>
       <c r="C16">
-        <v>10.66514031674842</v>
+        <v>7.293713285733674</v>
       </c>
       <c r="D16">
-        <v>6.015435371759498</v>
+        <v>5.532403715326244</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>28.51619610746087</v>
+        <v>22.70269808097831</v>
       </c>
       <c r="G16">
-        <v>3.654922283900399</v>
+        <v>2.085442807693616</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.528949224043044</v>
+        <v>13.56306287972766</v>
       </c>
       <c r="L16">
-        <v>10.90500015042794</v>
+        <v>9.177196329286961</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.38511987845148</v>
+        <v>17.8117876414641</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.75879828222264</v>
+        <v>17.60535406050523</v>
       </c>
       <c r="C17">
-        <v>10.67752831267262</v>
+        <v>7.338802690650065</v>
       </c>
       <c r="D17">
-        <v>5.999179769960405</v>
+        <v>5.488202317195294</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>28.5130677772765</v>
+        <v>22.5085532813907</v>
       </c>
       <c r="G17">
-        <v>3.655685529926691</v>
+        <v>2.087704854795537</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.445747977990596</v>
+        <v>13.31817999214369</v>
       </c>
       <c r="L17">
-        <v>10.88751026677025</v>
+        <v>9.046685047081731</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.40469765898665</v>
+        <v>17.75610900228833</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.68977243708521</v>
+        <v>17.38195272568194</v>
       </c>
       <c r="C18">
-        <v>10.68474562784416</v>
+        <v>7.364866913772508</v>
       </c>
       <c r="D18">
-        <v>5.989773139613654</v>
+        <v>5.462589481271489</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>28.51197459941045</v>
+        <v>22.39858170954787</v>
       </c>
       <c r="G18">
-        <v>3.656130629569765</v>
+        <v>2.089013530544995</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.397674258026782</v>
+        <v>13.17542044566537</v>
       </c>
       <c r="L18">
-        <v>10.8776500325597</v>
+        <v>8.971391264055821</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.41648843386942</v>
+        <v>17.72589300548268</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.66636024829817</v>
+        <v>17.30574045212193</v>
       </c>
       <c r="C19">
-        <v>10.68720512069315</v>
+        <v>7.373714556089135</v>
       </c>
       <c r="D19">
-        <v>5.986578546054065</v>
+        <v>5.453885299069214</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>28.51172577861891</v>
+        <v>22.36163855573355</v>
       </c>
       <c r="G19">
-        <v>3.656282381877</v>
+        <v>2.089457957451058</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.381361421272585</v>
+        <v>13.12675663666684</v>
       </c>
       <c r="L19">
-        <v>10.87434599195319</v>
+        <v>8.945860812546828</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.42057157084643</v>
+        <v>17.71596910593455</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.77155324998726</v>
+        <v>17.6464292270094</v>
       </c>
       <c r="C20">
-        <v>10.67620006575076</v>
+        <v>7.333989493030817</v>
       </c>
       <c r="D20">
-        <v>6.000916110852521</v>
+        <v>5.492927325434553</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>28.51332771618344</v>
+        <v>22.5290448985855</v>
       </c>
       <c r="G20">
-        <v>3.655603650018509</v>
+        <v>2.087463274903536</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.454627900065397</v>
+        <v>13.34444581563022</v>
       </c>
       <c r="L20">
-        <v>10.88935149760982</v>
+        <v>9.060602111373409</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.40255868514686</v>
+        <v>17.76184793701438</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.12177227091859</v>
+        <v>18.75157943199873</v>
       </c>
       <c r="C21">
-        <v>10.64032303076421</v>
+        <v>7.202040132104698</v>
       </c>
       <c r="D21">
-        <v>6.048402519308291</v>
+        <v>5.621811841745739</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>28.52714408415459</v>
+        <v>23.11175002772649</v>
       </c>
       <c r="G21">
-        <v>3.653395990066913</v>
+        <v>2.080850354955627</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.698063965821595</v>
+        <v>14.05304247710631</v>
       </c>
       <c r="L21">
-        <v>10.94213584852801</v>
+        <v>9.44328433085761</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.3483770974759</v>
+        <v>17.93789639195914</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.34787032582557</v>
+        <v>19.44477020293321</v>
       </c>
       <c r="C22">
-        <v>10.61769044268825</v>
+        <v>7.116863590549973</v>
       </c>
       <c r="D22">
-        <v>6.07891113869288</v>
+        <v>5.704274092356875</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28.54245137047489</v>
+        <v>23.50763627804787</v>
       </c>
       <c r="G22">
-        <v>3.652007168284715</v>
+        <v>2.076590179426487</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.854867006659086</v>
+        <v>14.49917615853925</v>
       </c>
       <c r="L22">
-        <v>10.97836209545891</v>
+        <v>9.691027015541472</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.31770215072643</v>
+        <v>18.06993232147827</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.22747737060235</v>
+        <v>19.0774390370926</v>
       </c>
       <c r="C23">
-        <v>10.62969552378421</v>
+        <v>7.162231809432747</v>
       </c>
       <c r="D23">
-        <v>6.062677264867325</v>
+        <v>5.660428374370514</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>28.53370789420734</v>
+        <v>23.29496895459881</v>
       </c>
       <c r="G23">
-        <v>3.652743481694585</v>
+        <v>2.078858566837065</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.77140468870847</v>
+        <v>14.26261656051221</v>
       </c>
       <c r="L23">
-        <v>10.95887169101363</v>
+        <v>9.559032648166632</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.33363993749774</v>
+        <v>17.99786729616293</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.7657876120564</v>
+        <v>17.62786980276787</v>
       </c>
       <c r="C24">
-        <v>10.67680026929711</v>
+        <v>7.336165097176815</v>
       </c>
       <c r="D24">
-        <v>6.000131301114235</v>
+        <v>5.490791773877779</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>28.51320800059283</v>
+        <v>22.51977551462279</v>
       </c>
       <c r="G24">
-        <v>3.655640648299462</v>
+        <v>2.08757246758305</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.450614031527408</v>
+        <v>13.33257718273409</v>
       </c>
       <c r="L24">
-        <v>10.8885184694382</v>
+        <v>9.054311015860746</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.40352404809334</v>
+        <v>17.75924778523055</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.25841356802987</v>
+        <v>15.93705296548437</v>
       </c>
       <c r="C25">
-        <v>10.73113328978827</v>
+        <v>7.528801352478226</v>
       </c>
       <c r="D25">
-        <v>5.930504593633605</v>
+        <v>5.300633547768465</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.51809011513916</v>
+        <v>21.7484128527012</v>
       </c>
       <c r="G25">
-        <v>3.658999151740743</v>
+        <v>2.097265663147506</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.096472149713309</v>
+        <v>12.25644522575824</v>
       </c>
       <c r="L25">
-        <v>10.82028140263798</v>
+        <v>8.501502153917368</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.49916322995003</v>
+        <v>17.57046343214547</v>
       </c>
     </row>
   </sheetData>
